--- a/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H2">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>13.29250009284916</v>
+        <v>48.74695854406867</v>
       </c>
       <c r="R2">
-        <v>13.29250009284916</v>
+        <v>438.722626896618</v>
       </c>
       <c r="S2">
-        <v>0.006339295830471146</v>
+        <v>0.01509879412844344</v>
       </c>
       <c r="T2">
-        <v>0.006339295830471146</v>
+        <v>0.01509879412844344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H3">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>919.1795924126222</v>
+        <v>1590.696343875165</v>
       </c>
       <c r="R3">
-        <v>919.1795924126222</v>
+        <v>14316.26709487648</v>
       </c>
       <c r="S3">
-        <v>0.4383638380239825</v>
+        <v>0.4926993874977079</v>
       </c>
       <c r="T3">
-        <v>0.4383638380239825</v>
+        <v>0.4926993874977079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H4">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>2.395339870966794</v>
+        <v>4.34225970919</v>
       </c>
       <c r="R4">
-        <v>2.395339870966794</v>
+        <v>39.08033738271001</v>
       </c>
       <c r="S4">
-        <v>0.001142356061727612</v>
+        <v>0.001344963611258408</v>
       </c>
       <c r="T4">
-        <v>0.001142356061727612</v>
+        <v>0.001344963611258408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H5">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I5">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J5">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N5">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q5">
-        <v>321.7265854937912</v>
+        <v>550.9583259202127</v>
       </c>
       <c r="R5">
-        <v>321.7265854937912</v>
+        <v>4958.624933281913</v>
       </c>
       <c r="S5">
-        <v>0.1534338903687268</v>
+        <v>0.1706528280918428</v>
       </c>
       <c r="T5">
-        <v>0.1534338903687268</v>
+        <v>0.1706528280918428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H6">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N6">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q6">
-        <v>0.5268471444429704</v>
+        <v>1.621350869897333</v>
       </c>
       <c r="R6">
-        <v>0.5268471444429704</v>
+        <v>14.592157829076</v>
       </c>
       <c r="S6">
-        <v>0.0002512574671983379</v>
+        <v>0.0005021942645390173</v>
       </c>
       <c r="T6">
-        <v>0.0002512574671983379</v>
+        <v>0.0005021942645390173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H7">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q7">
-        <v>36.43160730563847</v>
+        <v>52.90744239054312</v>
       </c>
       <c r="R7">
-        <v>36.43160730563847</v>
+        <v>476.166981514888</v>
       </c>
       <c r="S7">
-        <v>0.01737451455157321</v>
+        <v>0.01638745481515773</v>
       </c>
       <c r="T7">
-        <v>0.01737451455157321</v>
+        <v>0.01638745481515773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H8">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J8">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N8">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q8">
-        <v>0.09493909815115538</v>
+        <v>0.14442596558</v>
       </c>
       <c r="R8">
-        <v>0.09493909815115538</v>
+        <v>1.29983369022</v>
       </c>
       <c r="S8">
-        <v>4.527718825310221E-05</v>
+        <v>4.473423545230419E-05</v>
       </c>
       <c r="T8">
-        <v>4.527718825310221E-05</v>
+        <v>4.473423545230419E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H9">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J9">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N9">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q9">
-        <v>12.7516066710412</v>
+        <v>18.32517940991845</v>
       </c>
       <c r="R9">
-        <v>12.7516066710412</v>
+        <v>164.926614689266</v>
       </c>
       <c r="S9">
-        <v>0.006081339585246736</v>
+        <v>0.005676007684192548</v>
       </c>
       <c r="T9">
-        <v>0.006081339585246736</v>
+        <v>0.005676007684192548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H10">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N10">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q10">
-        <v>4.731726127727704</v>
+        <v>12.66949703356733</v>
       </c>
       <c r="R10">
-        <v>4.731726127727704</v>
+        <v>114.025473302106</v>
       </c>
       <c r="S10">
-        <v>0.002256596690081814</v>
+        <v>0.003924226928903115</v>
       </c>
       <c r="T10">
-        <v>0.002256596690081814</v>
+        <v>0.003924226928903116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H11">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I11">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J11">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q11">
-        <v>327.2000047479902</v>
+        <v>413.4272826850031</v>
       </c>
       <c r="R11">
-        <v>327.2000047479902</v>
+        <v>3720.845544165028</v>
       </c>
       <c r="S11">
-        <v>0.1560442062321234</v>
+        <v>0.1280542133249087</v>
       </c>
       <c r="T11">
-        <v>0.1560442062321234</v>
+        <v>0.1280542133249088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H12">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N12">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q12">
-        <v>0.8526682093715974</v>
+        <v>1.12856777423</v>
       </c>
       <c r="R12">
-        <v>0.8526682093715974</v>
+        <v>10.15710996807</v>
       </c>
       <c r="S12">
-        <v>0.0004066440463936886</v>
+        <v>0.000349560526277547</v>
       </c>
       <c r="T12">
-        <v>0.0004066440463936886</v>
+        <v>0.000349560526277547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H13">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I13">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J13">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N13">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q13">
-        <v>114.5248884658306</v>
+        <v>143.1959056390135</v>
       </c>
       <c r="R13">
-        <v>114.5248884658306</v>
+        <v>1288.763150751121</v>
       </c>
       <c r="S13">
-        <v>0.05461780273578302</v>
+        <v>0.04435323892720178</v>
       </c>
       <c r="T13">
-        <v>0.05461780273578302</v>
+        <v>0.04435323892720178</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H14">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I14">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J14">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N14">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q14">
-        <v>3.629733334068773</v>
+        <v>8.670412571967331</v>
       </c>
       <c r="R14">
-        <v>3.629733334068773</v>
+        <v>78.03371314770598</v>
       </c>
       <c r="S14">
-        <v>0.001731047826192061</v>
+        <v>0.002685557793609905</v>
       </c>
       <c r="T14">
-        <v>0.001731047826192061</v>
+        <v>0.002685557793609905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H15">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I15">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J15">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q15">
-        <v>250.9969368644716</v>
+        <v>282.9303404775364</v>
       </c>
       <c r="R15">
-        <v>250.9969368644716</v>
+        <v>2546.373064297828</v>
       </c>
       <c r="S15">
-        <v>0.119702375340358</v>
+        <v>0.08763432819503605</v>
       </c>
       <c r="T15">
-        <v>0.119702375340358</v>
+        <v>0.08763432819503607</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H16">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I16">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J16">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N16">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q16">
-        <v>0.6540865085830945</v>
+        <v>0.7723391222299999</v>
       </c>
       <c r="R16">
-        <v>0.6540865085830945</v>
+        <v>6.951052100069999</v>
       </c>
       <c r="S16">
-        <v>0.0003119389014605961</v>
+        <v>0.0002392229126121018</v>
       </c>
       <c r="T16">
-        <v>0.0003119389014605961</v>
+        <v>0.0002392229126121018</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H17">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N17">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q17">
-        <v>87.85267659702042</v>
+        <v>97.99659585674677</v>
       </c>
       <c r="R17">
-        <v>87.85267659702042</v>
+        <v>881.9693627107209</v>
       </c>
       <c r="S17">
-        <v>0.04189761915042789</v>
+        <v>0.03035328706285674</v>
       </c>
       <c r="T17">
-        <v>0.04189761915042789</v>
+        <v>0.03035328706285674</v>
       </c>
     </row>
   </sheetData>
